--- a/src/examples excel/d-examples.xlsx
+++ b/src/examples excel/d-examples.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="17">
   <si>
     <t>l</t>
   </si>
@@ -57,10 +57,16 @@
     <t>u</t>
   </si>
   <si>
-    <t>double-world-pathfinding-blind-example</t>
+    <t>t</t>
   </si>
   <si>
-    <t>double-world-pathfinding-seen-example</t>
+    <t>d-world-with-bears</t>
+  </si>
+  <si>
+    <t>d-double-world-pathfinding-blind-example</t>
+  </si>
+  <si>
+    <t>d-double-world-pathfinding-seen-example</t>
   </si>
 </sst>
 </file>
@@ -96,17 +102,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="220">
+  <dxfs count="170">
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="6" tint="-0.499984740745262"/>
@@ -119,6 +151,16 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B0F0"/>
       </font>
       <fill>
@@ -129,6 +171,156 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="9" tint="0.39994506668294322"/>
       </font>
       <fill>
@@ -139,6 +331,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="5"/>
       </font>
       <fill>
@@ -209,6 +421,26 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="6" tint="-0.499984740745262"/>
       </font>
       <fill>
@@ -219,6 +451,86 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B0F0"/>
       </font>
       <fill>
@@ -229,6 +541,86 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="9" tint="0.39994506668294322"/>
       </font>
       <fill>
@@ -239,6 +631,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="5"/>
       </font>
       <fill>
@@ -309,6 +721,26 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="6" tint="-0.499984740745262"/>
       </font>
       <fill>
@@ -319,6 +751,86 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B0F0"/>
       </font>
       <fill>
@@ -329,6 +841,86 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="9" tint="0.39994506668294322"/>
       </font>
       <fill>
@@ -339,6 +931,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="5"/>
       </font>
       <fill>
@@ -409,6 +1021,26 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="6" tint="-0.499984740745262"/>
       </font>
       <fill>
@@ -419,6 +1051,86 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B0F0"/>
       </font>
       <fill>
@@ -429,6 +1141,86 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="9" tint="0.39994506668294322"/>
       </font>
       <fill>
@@ -439,6 +1231,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="5"/>
       </font>
       <fill>
@@ -509,6 +1321,26 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="6" tint="-0.499984740745262"/>
       </font>
       <fill>
@@ -519,6 +1351,86 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B0F0"/>
       </font>
       <fill>
@@ -529,6 +1441,86 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="9" tint="0.39994506668294322"/>
       </font>
       <fill>
@@ -539,6 +1531,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="5"/>
       </font>
       <fill>
@@ -609,6 +1621,26 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="6" tint="-0.499984740745262"/>
       </font>
       <fill>
@@ -619,6 +1651,86 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B0F0"/>
       </font>
       <fill>
@@ -629,1611 +1741,11 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="6" tint="-0.499984740745262"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2604,10 +2116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2620,7 +2132,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -3115,7 +2627,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -3605,39 +3117,411 @@
         <v>12</v>
       </c>
     </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:J12 K1:XFD12 A13:XFD1048576">
-    <cfRule type="cellIs" dxfId="219" priority="5" operator="equal">
+  <mergeCells count="1">
+    <mergeCell ref="B27:D27"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A3:J12 K1:XFD12 A39:XFD1048576 A13:XFD26 K27:XFD38 A29:J30 A37:J38 F31:J36 A31:D36">
+    <cfRule type="cellIs" dxfId="29" priority="25" operator="equal">
       <formula>"c"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
       <formula>"u"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
       <formula>"m"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="8" operator="equal">
-      <formula>"f"</formula>
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
+      <formula>"t"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
       <formula>"g"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="30" operator="equal">
       <formula>"s"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
       <formula>"l"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="211" priority="4" operator="equal">
+  <conditionalFormatting sqref="A39:XFD1048576 A1:XFD26 K27:XFD38 A29:J30 A37:J38 F31:J36 A31:D36">
+    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
+      <formula>"Start"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+      <formula>"w"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
       <formula>"f"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="3" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:E36">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+      <formula>"c"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+      <formula>"u"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+      <formula>"m"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
+      <formula>"t"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+      <formula>"g"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
+      <formula>"s"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+      <formula>"l"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:E36">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"Start"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="1" operator="equal">
-      <formula>"Start"</formula>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/examples excel/d-examples.xlsx
+++ b/src/examples excel/d-examples.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="20">
   <si>
     <t>l</t>
   </si>
@@ -68,6 +68,15 @@
   <si>
     <t>d-double-world-pathfinding-seen-example</t>
   </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>d-world-with-seagull</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
 </sst>
 </file>
 
@@ -102,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -114,1411 +123,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="170">
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="30">
     <dxf>
       <font>
         <color theme="9" tint="0.39994506668294322"/>
@@ -2116,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3121,11 +1733,11 @@
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -3452,75 +2064,127 @@
         <v>0</v>
       </c>
     </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B40:D40"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:J12 K1:XFD12 A39:XFD1048576 A13:XFD26 K27:XFD38 A29:J30 A37:J38 F31:J36 A31:D36">
-    <cfRule type="cellIs" dxfId="29" priority="25" operator="equal">
+  <conditionalFormatting sqref="A3:J12 K1:XFD12 A13:XFD26 K27:XFD38 A29:J30 A37:J38 F31:J36 A31:D36 A39:XFD39 A42:XFD1048576 E40:XFD41">
+    <cfRule type="cellIs" dxfId="19" priority="25" operator="equal">
       <formula>"c"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="26" operator="equal">
       <formula>"u"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="27" operator="equal">
       <formula>"m"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="28" operator="equal">
       <formula>"t"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="29" operator="equal">
       <formula>"g"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="30" operator="equal">
       <formula>"s"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="31" operator="equal">
       <formula>"l"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A39:XFD1048576 A1:XFD26 K27:XFD38 A29:J30 A37:J38 F31:J36 A31:D36">
-    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
+  <conditionalFormatting sqref="A1:XFD26 K27:XFD38 A29:J30 A37:J38 F31:J36 A31:D36 A39:XFD39 A42:XFD1048576 E40:XFD41">
+    <cfRule type="cellIs" dxfId="12" priority="21" operator="equal">
       <formula>"Start"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="23" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="24" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:E36">
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>"c"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>"u"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"m"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"t"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>"g"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
       <formula>"s"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
       <formula>"l"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:E36">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Start"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"f"</formula>
     </cfRule>
   </conditionalFormatting>
